--- a/spec/lib/product_import/test_data/Bi-Rite Zynga Supplier Product Listing Import Template.xlsx
+++ b/spec/lib/product_import/test_data/Bi-Rite Zynga Supplier Product Listing Import Template.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="901">
   <si>
     <t>Seller Name</t>
   </si>
@@ -2937,7 +2937,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2968,6 +2968,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3277,8 +3286,8 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD9354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3286,11 +3295,11 @@
     <col min="1" max="1" width="25" style="12" customWidth="1"/>
     <col min="2" max="2" width="39.1640625" customWidth="1"/>
     <col min="3" max="3" width="47.33203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="41.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="21" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="39" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
@@ -3342,8 +3351,9 @@
       <c r="B2" t="s">
         <v>489</v>
       </c>
-      <c r="C2" t="s">
-        <v>490</v>
+      <c r="C2" t="str">
+        <f>VLOOKUP(+I2,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D2" t="s">
         <v>590</v>
@@ -3384,8 +3394,9 @@
       <c r="B3" t="s">
         <v>491</v>
       </c>
-      <c r="C3" t="s">
-        <v>490</v>
+      <c r="C3" t="str">
+        <f>VLOOKUP(+I3,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D3" t="s">
         <v>590</v>
@@ -3426,8 +3437,9 @@
       <c r="B4" t="s">
         <v>492</v>
       </c>
-      <c r="C4" t="s">
-        <v>490</v>
+      <c r="C4" t="str">
+        <f>VLOOKUP(+I4,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D4" t="s">
         <v>591</v>
@@ -3468,8 +3480,9 @@
       <c r="B5" t="s">
         <v>493</v>
       </c>
-      <c r="C5" t="s">
-        <v>490</v>
+      <c r="C5" t="str">
+        <f>VLOOKUP(+I5,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D5" t="s">
         <v>592</v>
@@ -3510,8 +3523,9 @@
       <c r="B6" t="s">
         <v>494</v>
       </c>
-      <c r="C6" t="s">
-        <v>490</v>
+      <c r="C6" t="str">
+        <f>VLOOKUP(+I6,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D6" t="s">
         <v>590</v>
@@ -3552,8 +3566,9 @@
       <c r="B7" t="s">
         <v>495</v>
       </c>
-      <c r="C7" t="s">
-        <v>490</v>
+      <c r="C7" t="str">
+        <f>VLOOKUP(+I7,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D7" t="s">
         <v>593</v>
@@ -3594,8 +3609,9 @@
       <c r="B8" t="s">
         <v>496</v>
       </c>
-      <c r="C8" t="s">
-        <v>490</v>
+      <c r="C8" t="str">
+        <f>VLOOKUP(+I8,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D8" t="s">
         <v>593</v>
@@ -3636,8 +3652,9 @@
       <c r="B9" t="s">
         <v>497</v>
       </c>
-      <c r="C9" t="s">
-        <v>490</v>
+      <c r="C9" t="str">
+        <f>VLOOKUP(+I9,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D9" t="s">
         <v>593</v>
@@ -3678,8 +3695,9 @@
       <c r="B10" t="s">
         <v>498</v>
       </c>
-      <c r="C10" t="s">
-        <v>490</v>
+      <c r="C10" t="str">
+        <f>VLOOKUP(+I10,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D10" t="s">
         <v>593</v>
@@ -3720,8 +3738,9 @@
       <c r="B11" t="s">
         <v>499</v>
       </c>
-      <c r="C11" t="s">
-        <v>490</v>
+      <c r="C11" t="str">
+        <f>VLOOKUP(+I11,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D11" t="s">
         <v>594</v>
@@ -3762,8 +3781,9 @@
       <c r="B12" t="s">
         <v>500</v>
       </c>
-      <c r="C12" t="s">
-        <v>490</v>
+      <c r="C12" t="str">
+        <f>VLOOKUP(+I12,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D12" t="s">
         <v>595</v>
@@ -3804,8 +3824,9 @@
       <c r="B13" t="s">
         <v>501</v>
       </c>
-      <c r="C13" t="s">
-        <v>490</v>
+      <c r="C13" t="str">
+        <f>VLOOKUP(+I13,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D13" t="s">
         <v>596</v>
@@ -3846,8 +3867,9 @@
       <c r="B14" t="s">
         <v>502</v>
       </c>
-      <c r="C14" t="s">
-        <v>490</v>
+      <c r="C14" t="str">
+        <f>VLOOKUP(+I14,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D14" t="s">
         <v>596</v>
@@ -3888,8 +3910,9 @@
       <c r="B15" t="s">
         <v>503</v>
       </c>
-      <c r="C15" t="s">
-        <v>490</v>
+      <c r="C15" t="str">
+        <f>VLOOKUP(+I15,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D15" t="s">
         <v>597</v>
@@ -3930,8 +3953,9 @@
       <c r="B16" t="s">
         <v>504</v>
       </c>
-      <c r="C16" t="s">
-        <v>490</v>
+      <c r="C16" t="str">
+        <f>VLOOKUP(+I16,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D16" t="s">
         <v>598</v>
@@ -3972,8 +3996,9 @@
       <c r="B17" t="s">
         <v>505</v>
       </c>
-      <c r="C17" t="s">
-        <v>490</v>
+      <c r="C17" t="str">
+        <f>VLOOKUP(+I17,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D17" t="s">
         <v>598</v>
@@ -4014,8 +4039,9 @@
       <c r="B18" t="s">
         <v>506</v>
       </c>
-      <c r="C18" t="s">
-        <v>490</v>
+      <c r="C18" t="str">
+        <f>VLOOKUP(+I18,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D18" t="s">
         <v>599</v>
@@ -4056,8 +4082,9 @@
       <c r="B19" t="s">
         <v>507</v>
       </c>
-      <c r="C19" t="s">
-        <v>490</v>
+      <c r="C19" t="str">
+        <f>VLOOKUP(+I19,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D19" t="s">
         <v>600</v>
@@ -4098,8 +4125,9 @@
       <c r="B20" t="s">
         <v>508</v>
       </c>
-      <c r="C20" t="s">
-        <v>490</v>
+      <c r="C20" t="str">
+        <f>VLOOKUP(+I20,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D20" t="s">
         <v>601</v>
@@ -4140,8 +4168,9 @@
       <c r="B21" t="s">
         <v>509</v>
       </c>
-      <c r="C21" t="s">
-        <v>490</v>
+      <c r="C21" t="str">
+        <f>VLOOKUP(+I21,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D21" t="s">
         <v>602</v>
@@ -4182,8 +4211,9 @@
       <c r="B22" t="s">
         <v>510</v>
       </c>
-      <c r="C22" t="s">
-        <v>490</v>
+      <c r="C22" t="str">
+        <f>VLOOKUP(+I22,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D22" t="s">
         <v>603</v>
@@ -4224,8 +4254,9 @@
       <c r="B23" t="s">
         <v>511</v>
       </c>
-      <c r="C23" t="s">
-        <v>490</v>
+      <c r="C23" t="str">
+        <f>VLOOKUP(+I23,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D23" t="s">
         <v>604</v>
@@ -4266,8 +4297,9 @@
       <c r="B24" t="s">
         <v>512</v>
       </c>
-      <c r="C24" t="s">
-        <v>490</v>
+      <c r="C24" t="str">
+        <f>VLOOKUP(+I24,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D24" t="s">
         <v>605</v>
@@ -4308,8 +4340,9 @@
       <c r="B25" t="s">
         <v>513</v>
       </c>
-      <c r="C25" t="s">
-        <v>490</v>
+      <c r="C25" t="str">
+        <f>VLOOKUP(+I25,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D25" t="s">
         <v>606</v>
@@ -4350,8 +4383,9 @@
       <c r="B26" t="s">
         <v>514</v>
       </c>
-      <c r="C26" t="s">
-        <v>490</v>
+      <c r="C26" t="str">
+        <f>VLOOKUP(+I26,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D26" t="s">
         <v>607</v>
@@ -4392,8 +4426,9 @@
       <c r="B27" t="s">
         <v>515</v>
       </c>
-      <c r="C27" t="s">
-        <v>490</v>
+      <c r="C27" t="str">
+        <f>VLOOKUP(+I27,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D27" t="s">
         <v>608</v>
@@ -4434,8 +4469,9 @@
       <c r="B28" t="s">
         <v>516</v>
       </c>
-      <c r="C28" t="s">
-        <v>490</v>
+      <c r="C28" t="str">
+        <f>VLOOKUP(+I28,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D28" t="s">
         <v>609</v>
@@ -4476,8 +4512,9 @@
       <c r="B29" t="s">
         <v>517</v>
       </c>
-      <c r="C29" t="s">
-        <v>490</v>
+      <c r="C29" t="str">
+        <f>VLOOKUP(+I29,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D29" t="s">
         <v>610</v>
@@ -4518,8 +4555,9 @@
       <c r="B30" t="s">
         <v>518</v>
       </c>
-      <c r="C30" t="s">
-        <v>490</v>
+      <c r="C30" t="str">
+        <f>VLOOKUP(+I30,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D30" t="s">
         <v>611</v>
@@ -4560,8 +4598,9 @@
       <c r="B31" t="s">
         <v>519</v>
       </c>
-      <c r="C31" t="s">
-        <v>490</v>
+      <c r="C31" t="str">
+        <f>VLOOKUP(+I31,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D31" t="s">
         <v>612</v>
@@ -4602,8 +4641,9 @@
       <c r="B32" t="s">
         <v>520</v>
       </c>
-      <c r="C32" t="s">
-        <v>490</v>
+      <c r="C32" t="str">
+        <f>VLOOKUP(+I32,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D32" t="s">
         <v>610</v>
@@ -4644,8 +4684,9 @@
       <c r="B33" t="s">
         <v>521</v>
       </c>
-      <c r="C33" t="s">
-        <v>490</v>
+      <c r="C33" t="str">
+        <f>VLOOKUP(+I33,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D33" t="s">
         <v>613</v>
@@ -4686,8 +4727,9 @@
       <c r="B34" t="s">
         <v>522</v>
       </c>
-      <c r="C34" t="s">
-        <v>490</v>
+      <c r="C34" t="str">
+        <f>VLOOKUP(+I34,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D34" t="s">
         <v>614</v>
@@ -4728,8 +4770,9 @@
       <c r="B35" t="s">
         <v>523</v>
       </c>
-      <c r="C35" t="s">
-        <v>490</v>
+      <c r="C35" t="str">
+        <f>VLOOKUP(+I35,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D35" t="s">
         <v>615</v>
@@ -4770,8 +4813,9 @@
       <c r="B36" t="s">
         <v>524</v>
       </c>
-      <c r="C36" t="s">
-        <v>490</v>
+      <c r="C36" t="str">
+        <f>VLOOKUP(+I36,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D36" t="s">
         <v>616</v>
@@ -4812,8 +4856,9 @@
       <c r="B37" t="s">
         <v>525</v>
       </c>
-      <c r="C37" t="s">
-        <v>490</v>
+      <c r="C37" t="str">
+        <f>VLOOKUP(+I37,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D37" t="s">
         <v>617</v>
@@ -4854,8 +4899,9 @@
       <c r="B38" t="s">
         <v>526</v>
       </c>
-      <c r="C38" t="s">
-        <v>490</v>
+      <c r="C38" t="str">
+        <f>VLOOKUP(+I38,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D38" t="s">
         <v>618</v>
@@ -4896,8 +4942,9 @@
       <c r="B39" t="s">
         <v>527</v>
       </c>
-      <c r="C39" t="s">
-        <v>490</v>
+      <c r="C39" t="str">
+        <f>VLOOKUP(+I39,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D39" t="s">
         <v>619</v>
@@ -4938,8 +4985,9 @@
       <c r="B40" t="s">
         <v>528</v>
       </c>
-      <c r="C40" t="s">
-        <v>490</v>
+      <c r="C40" t="str">
+        <f>VLOOKUP(+I40,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D40" t="s">
         <v>620</v>
@@ -4980,8 +5028,9 @@
       <c r="B41" t="s">
         <v>529</v>
       </c>
-      <c r="C41" t="s">
-        <v>490</v>
+      <c r="C41" t="str">
+        <f>VLOOKUP(+I41,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D41" t="s">
         <v>621</v>
@@ -5022,8 +5071,9 @@
       <c r="B42" t="s">
         <v>530</v>
       </c>
-      <c r="C42" t="s">
-        <v>490</v>
+      <c r="C42" t="str">
+        <f>VLOOKUP(+I42,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D42" t="s">
         <v>622</v>
@@ -5064,8 +5114,9 @@
       <c r="B43" t="s">
         <v>531</v>
       </c>
-      <c r="C43" t="s">
-        <v>490</v>
+      <c r="C43" t="str">
+        <f>VLOOKUP(+I43,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D43" t="s">
         <v>623</v>
@@ -5106,8 +5157,9 @@
       <c r="B44" t="s">
         <v>532</v>
       </c>
-      <c r="C44" t="s">
-        <v>490</v>
+      <c r="C44" t="str">
+        <f>VLOOKUP(+I44,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D44" t="s">
         <v>624</v>
@@ -5148,8 +5200,9 @@
       <c r="B45" t="s">
         <v>533</v>
       </c>
-      <c r="C45" t="s">
-        <v>490</v>
+      <c r="C45" t="str">
+        <f>VLOOKUP(+I45,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D45" t="s">
         <v>625</v>
@@ -5190,8 +5243,9 @@
       <c r="B46" t="s">
         <v>534</v>
       </c>
-      <c r="C46" t="s">
-        <v>490</v>
+      <c r="C46" t="str">
+        <f>VLOOKUP(+I46,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D46" t="s">
         <v>626</v>
@@ -5232,8 +5286,9 @@
       <c r="B47" t="s">
         <v>535</v>
       </c>
-      <c r="C47" t="s">
-        <v>490</v>
+      <c r="C47" t="str">
+        <f>VLOOKUP(+I47,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D47" t="s">
         <v>627</v>
@@ -5274,8 +5329,9 @@
       <c r="B48" t="s">
         <v>536</v>
       </c>
-      <c r="C48" t="s">
-        <v>490</v>
+      <c r="C48" t="str">
+        <f>VLOOKUP(+I48,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D48" t="s">
         <v>628</v>
@@ -5316,8 +5372,9 @@
       <c r="B49" t="s">
         <v>537</v>
       </c>
-      <c r="C49" t="s">
-        <v>490</v>
+      <c r="C49" t="str">
+        <f>VLOOKUP(+I49,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D49" t="s">
         <v>629</v>
@@ -5358,8 +5415,9 @@
       <c r="B50" t="s">
         <v>538</v>
       </c>
-      <c r="C50" t="s">
-        <v>490</v>
+      <c r="C50" t="str">
+        <f>VLOOKUP(+I50,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D50" t="s">
         <v>630</v>
@@ -5400,8 +5458,9 @@
       <c r="B51" t="s">
         <v>539</v>
       </c>
-      <c r="C51" t="s">
-        <v>490</v>
+      <c r="C51" t="str">
+        <f>VLOOKUP(+I51,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D51" t="s">
         <v>631</v>
@@ -5442,8 +5501,9 @@
       <c r="B52" t="s">
         <v>540</v>
       </c>
-      <c r="C52" t="s">
-        <v>490</v>
+      <c r="C52" t="str">
+        <f>VLOOKUP(+I52,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D52" t="s">
         <v>632</v>
@@ -5484,8 +5544,9 @@
       <c r="B53" t="s">
         <v>541</v>
       </c>
-      <c r="C53" t="s">
-        <v>490</v>
+      <c r="C53" t="str">
+        <f>VLOOKUP(+I53,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D53" t="s">
         <v>633</v>
@@ -5526,8 +5587,9 @@
       <c r="B54" t="s">
         <v>542</v>
       </c>
-      <c r="C54" t="s">
-        <v>490</v>
+      <c r="C54" t="str">
+        <f>VLOOKUP(+I54,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D54" t="s">
         <v>622</v>
@@ -5568,8 +5630,9 @@
       <c r="B55" t="s">
         <v>543</v>
       </c>
-      <c r="C55" t="s">
-        <v>490</v>
+      <c r="C55" t="str">
+        <f>VLOOKUP(+I55,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D55" t="s">
         <v>633</v>
@@ -5610,8 +5673,9 @@
       <c r="B56" t="s">
         <v>544</v>
       </c>
-      <c r="C56" t="s">
-        <v>490</v>
+      <c r="C56" t="str">
+        <f>VLOOKUP(+I56,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D56" t="s">
         <v>602</v>
@@ -5652,8 +5716,9 @@
       <c r="B57" t="s">
         <v>545</v>
       </c>
-      <c r="C57" t="s">
-        <v>490</v>
+      <c r="C57" t="str">
+        <f>VLOOKUP(+I57,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D57" t="s">
         <v>634</v>
@@ -5694,8 +5759,9 @@
       <c r="B58" t="s">
         <v>546</v>
       </c>
-      <c r="C58" t="s">
-        <v>490</v>
+      <c r="C58" t="str">
+        <f>VLOOKUP(+I58,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D58" t="s">
         <v>635</v>
@@ -5736,8 +5802,9 @@
       <c r="B59" t="s">
         <v>547</v>
       </c>
-      <c r="C59" t="s">
-        <v>490</v>
+      <c r="C59" t="str">
+        <f>VLOOKUP(+I59,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D59" t="s">
         <v>636</v>
@@ -5778,8 +5845,9 @@
       <c r="B60" t="s">
         <v>548</v>
       </c>
-      <c r="C60" t="s">
-        <v>490</v>
+      <c r="C60" t="str">
+        <f>VLOOKUP(+I60,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D60" t="s">
         <v>637</v>
@@ -5820,8 +5888,9 @@
       <c r="B61" t="s">
         <v>549</v>
       </c>
-      <c r="C61" t="s">
-        <v>490</v>
+      <c r="C61" t="str">
+        <f>VLOOKUP(+I61,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D61" t="s">
         <v>622</v>
@@ -5862,8 +5931,9 @@
       <c r="B62" t="s">
         <v>550</v>
       </c>
-      <c r="C62" t="s">
-        <v>490</v>
+      <c r="C62" t="str">
+        <f>VLOOKUP(+I62,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D62" t="s">
         <v>631</v>
@@ -5904,8 +5974,9 @@
       <c r="B63" t="s">
         <v>551</v>
       </c>
-      <c r="C63" t="s">
-        <v>490</v>
+      <c r="C63" t="str">
+        <f>VLOOKUP(+I63,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D63" t="s">
         <v>638</v>
@@ -5946,8 +6017,9 @@
       <c r="B64" t="s">
         <v>552</v>
       </c>
-      <c r="C64" t="s">
-        <v>490</v>
+      <c r="C64" t="str">
+        <f>VLOOKUP(+I64,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D64" t="s">
         <v>631</v>
@@ -5988,8 +6060,9 @@
       <c r="B65" t="s">
         <v>553</v>
       </c>
-      <c r="C65" t="s">
-        <v>490</v>
+      <c r="C65" t="str">
+        <f>VLOOKUP(+I65,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D65" t="s">
         <v>630</v>
@@ -6030,8 +6103,9 @@
       <c r="B66" t="s">
         <v>554</v>
       </c>
-      <c r="C66" t="s">
-        <v>490</v>
+      <c r="C66" t="str">
+        <f>VLOOKUP(+I66,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D66" t="s">
         <v>610</v>
@@ -6072,8 +6146,9 @@
       <c r="B67" t="s">
         <v>555</v>
       </c>
-      <c r="C67" t="s">
-        <v>490</v>
+      <c r="C67" t="str">
+        <f>VLOOKUP(+I67,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D67" t="s">
         <v>622</v>
@@ -6114,8 +6189,9 @@
       <c r="B68" t="s">
         <v>556</v>
       </c>
-      <c r="C68" t="s">
-        <v>490</v>
+      <c r="C68" t="str">
+        <f>VLOOKUP(+I68,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D68" t="s">
         <v>622</v>
@@ -6156,8 +6232,9 @@
       <c r="B69" t="s">
         <v>557</v>
       </c>
-      <c r="C69" t="s">
-        <v>490</v>
+      <c r="C69" t="str">
+        <f>VLOOKUP(+I69,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D69" t="s">
         <v>622</v>
@@ -6198,8 +6275,9 @@
       <c r="B70" t="s">
         <v>558</v>
       </c>
-      <c r="C70" t="s">
-        <v>490</v>
+      <c r="C70" t="str">
+        <f>VLOOKUP(+I70,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D70" t="s">
         <v>639</v>
@@ -6240,8 +6318,9 @@
       <c r="B71" t="s">
         <v>559</v>
       </c>
-      <c r="C71" t="s">
-        <v>490</v>
+      <c r="C71" t="str">
+        <f>VLOOKUP(+I71,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D71" t="s">
         <v>628</v>
@@ -6282,8 +6361,9 @@
       <c r="B72" t="s">
         <v>560</v>
       </c>
-      <c r="C72" t="s">
-        <v>490</v>
+      <c r="C72" t="str">
+        <f>VLOOKUP(+I72,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D72" t="s">
         <v>628</v>
@@ -6324,8 +6404,9 @@
       <c r="B73" t="s">
         <v>561</v>
       </c>
-      <c r="C73" t="s">
-        <v>490</v>
+      <c r="C73" t="str">
+        <f>VLOOKUP(+I73,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D73" t="s">
         <v>628</v>
@@ -6366,8 +6447,9 @@
       <c r="B74" t="s">
         <v>562</v>
       </c>
-      <c r="C74" t="s">
-        <v>490</v>
+      <c r="C74" t="str">
+        <f>VLOOKUP(+I74,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D74" t="s">
         <v>639</v>
@@ -6408,8 +6490,9 @@
       <c r="B75" t="s">
         <v>563</v>
       </c>
-      <c r="C75" t="s">
-        <v>490</v>
+      <c r="C75" t="str">
+        <f>VLOOKUP(+I75,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D75" t="s">
         <v>628</v>
@@ -6450,8 +6533,9 @@
       <c r="B76" t="s">
         <v>564</v>
       </c>
-      <c r="C76" t="s">
-        <v>490</v>
+      <c r="C76" t="str">
+        <f>VLOOKUP(+I76,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D76" t="s">
         <v>598</v>
@@ -6492,8 +6576,9 @@
       <c r="B77" t="s">
         <v>565</v>
       </c>
-      <c r="C77" t="s">
-        <v>490</v>
+      <c r="C77" t="str">
+        <f>VLOOKUP(+I77,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D77" t="s">
         <v>628</v>
@@ -6534,8 +6619,9 @@
       <c r="B78" t="s">
         <v>566</v>
       </c>
-      <c r="C78" t="s">
-        <v>490</v>
+      <c r="C78" t="str">
+        <f>VLOOKUP(+I78,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D78" t="s">
         <v>622</v>
@@ -6576,8 +6662,9 @@
       <c r="B79" t="s">
         <v>567</v>
       </c>
-      <c r="C79" t="s">
-        <v>490</v>
+      <c r="C79" t="str">
+        <f>VLOOKUP(+I79,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D79" t="s">
         <v>622</v>
@@ -6618,8 +6705,9 @@
       <c r="B80" t="s">
         <v>568</v>
       </c>
-      <c r="C80" t="s">
-        <v>490</v>
+      <c r="C80" t="str">
+        <f>VLOOKUP(+I80,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D80" t="s">
         <v>640</v>
@@ -6660,8 +6748,9 @@
       <c r="B81" t="s">
         <v>569</v>
       </c>
-      <c r="C81" t="s">
-        <v>490</v>
+      <c r="C81" t="str">
+        <f>VLOOKUP(+I81,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D81" t="s">
         <v>641</v>
@@ -6702,8 +6791,9 @@
       <c r="B82" t="s">
         <v>570</v>
       </c>
-      <c r="C82" t="s">
-        <v>490</v>
+      <c r="C82" t="str">
+        <f>VLOOKUP(+I82,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D82" t="s">
         <v>630</v>
@@ -6744,8 +6834,9 @@
       <c r="B83" t="s">
         <v>571</v>
       </c>
-      <c r="C83" t="s">
-        <v>490</v>
+      <c r="C83" t="str">
+        <f>VLOOKUP(+I83,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D83" t="s">
         <v>642</v>
@@ -6786,8 +6877,9 @@
       <c r="B84" t="s">
         <v>572</v>
       </c>
-      <c r="C84" t="s">
-        <v>490</v>
+      <c r="C84" t="str">
+        <f>VLOOKUP(+I84,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D84" t="s">
         <v>630</v>
@@ -6828,8 +6920,9 @@
       <c r="B85" t="s">
         <v>573</v>
       </c>
-      <c r="C85" t="s">
-        <v>490</v>
+      <c r="C85" t="str">
+        <f>VLOOKUP(+I85,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D85" t="s">
         <v>643</v>
@@ -6870,8 +6963,9 @@
       <c r="B86" t="s">
         <v>574</v>
       </c>
-      <c r="C86" t="s">
-        <v>490</v>
+      <c r="C86" t="str">
+        <f>VLOOKUP(+I86,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D86" t="s">
         <v>626</v>
@@ -6912,8 +7006,9 @@
       <c r="B87" t="s">
         <v>575</v>
       </c>
-      <c r="C87" t="s">
-        <v>490</v>
+      <c r="C87" t="str">
+        <f>VLOOKUP(+I87,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D87" t="s">
         <v>632</v>
@@ -6954,8 +7049,9 @@
       <c r="B88" t="s">
         <v>576</v>
       </c>
-      <c r="C88" t="s">
-        <v>490</v>
+      <c r="C88" t="str">
+        <f>VLOOKUP(+I88,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D88" t="s">
         <v>630</v>
@@ -6996,8 +7092,9 @@
       <c r="B89" t="s">
         <v>577</v>
       </c>
-      <c r="C89" t="s">
-        <v>490</v>
+      <c r="C89" t="str">
+        <f>VLOOKUP(+I89,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D89" t="s">
         <v>644</v>
@@ -7038,8 +7135,9 @@
       <c r="B90" t="s">
         <v>578</v>
       </c>
-      <c r="C90" t="s">
-        <v>490</v>
+      <c r="C90" t="str">
+        <f>VLOOKUP(+I90,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D90" t="s">
         <v>645</v>
@@ -7080,8 +7178,9 @@
       <c r="B91" t="s">
         <v>579</v>
       </c>
-      <c r="C91" t="s">
-        <v>490</v>
+      <c r="C91" t="str">
+        <f>VLOOKUP(+I91,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D91" t="s">
         <v>646</v>
@@ -7122,8 +7221,9 @@
       <c r="B92" t="s">
         <v>580</v>
       </c>
-      <c r="C92" t="s">
-        <v>490</v>
+      <c r="C92" t="str">
+        <f>VLOOKUP(+I92,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D92" t="s">
         <v>647</v>
@@ -7164,8 +7264,9 @@
       <c r="B93" t="s">
         <v>581</v>
       </c>
-      <c r="C93" t="s">
-        <v>490</v>
+      <c r="C93" t="str">
+        <f>VLOOKUP(+I93,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D93" t="s">
         <v>648</v>
@@ -7206,8 +7307,9 @@
       <c r="B94" t="s">
         <v>582</v>
       </c>
-      <c r="C94" t="s">
-        <v>490</v>
+      <c r="C94" t="str">
+        <f>VLOOKUP(+I94,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D94" t="s">
         <v>649</v>
@@ -7248,8 +7350,9 @@
       <c r="B95" t="s">
         <v>583</v>
       </c>
-      <c r="C95" t="s">
-        <v>490</v>
+      <c r="C95" t="str">
+        <f>VLOOKUP(+I95,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D95" t="s">
         <v>650</v>
@@ -7290,8 +7393,9 @@
       <c r="B96" t="s">
         <v>584</v>
       </c>
-      <c r="C96" t="s">
-        <v>490</v>
+      <c r="C96" t="str">
+        <f>VLOOKUP(+I96,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D96" t="s">
         <v>651</v>
@@ -7332,8 +7436,9 @@
       <c r="B97" t="s">
         <v>585</v>
       </c>
-      <c r="C97" t="s">
-        <v>490</v>
+      <c r="C97" t="str">
+        <f>VLOOKUP(+I97,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D97" t="s">
         <v>652</v>
@@ -7374,8 +7479,9 @@
       <c r="B98" t="s">
         <v>586</v>
       </c>
-      <c r="C98" t="s">
-        <v>490</v>
+      <c r="C98" t="str">
+        <f>VLOOKUP(+I98,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D98" t="s">
         <v>653</v>
@@ -7416,8 +7522,9 @@
       <c r="B99" t="s">
         <v>587</v>
       </c>
-      <c r="C99" t="s">
-        <v>490</v>
+      <c r="C99" t="str">
+        <f>VLOOKUP(+I99,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D99" t="s">
         <v>654</v>
@@ -7458,8 +7565,9 @@
       <c r="B100" t="s">
         <v>588</v>
       </c>
-      <c r="C100" t="s">
-        <v>490</v>
+      <c r="C100" t="str">
+        <f>VLOOKUP(+I100,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D100" t="s">
         <v>655</v>
@@ -7500,8 +7608,9 @@
       <c r="B101" t="s">
         <v>589</v>
       </c>
-      <c r="C101" t="s">
-        <v>490</v>
+      <c r="C101" t="str">
+        <f>VLOOKUP(+I101,'BI Rite Categories'!$A$2:$B$158,2)</f>
+        <v>Breads &amp; Baked Goods</v>
       </c>
       <c r="D101" t="s">
         <v>656</v>
@@ -7536,6 +7645,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -7546,7 +7656,7 @@
   <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7569,548 +7679,548 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B2" t="s">
-        <v>865</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+        <v>733</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="B3" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>659</v>
-      </c>
-      <c r="B4" t="s">
-        <v>866</v>
+        <v>738</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>660</v>
-      </c>
-      <c r="B5" t="s">
-        <v>867</v>
+        <v>736</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B6" t="s">
-        <v>868</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B8" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>664</v>
-      </c>
-      <c r="B9" t="s">
-        <v>883</v>
+        <v>791</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>665</v>
-      </c>
-      <c r="B10" t="s">
-        <v>870</v>
+        <v>667</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>666</v>
-      </c>
-      <c r="B11" t="s">
-        <v>866</v>
+        <v>670</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>667</v>
-      </c>
-      <c r="B12" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B13" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>669</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>891</v>
+        <v>793</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>670</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>887</v>
+        <v>760</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>671</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>888</v>
+        <v>684</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>672</v>
-      </c>
-      <c r="B17" t="s">
-        <v>866</v>
+        <v>743</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>673</v>
-      </c>
-      <c r="B18" t="s">
-        <v>868</v>
+        <v>741</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="B19" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>675</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>889</v>
+        <v>747</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>676</v>
-      </c>
-      <c r="B21" t="s">
-        <v>868</v>
+        <v>748</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>677</v>
-      </c>
-      <c r="B22" t="s">
-        <v>878</v>
+        <v>755</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>678</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>890</v>
+        <v>737</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>679</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>892</v>
+        <v>685</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>680</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>893</v>
+        <v>795</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>681</v>
-      </c>
-      <c r="B26" t="s">
-        <v>870</v>
+        <v>678</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>682</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>490</v>
+        <v>680</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>683</v>
-      </c>
-      <c r="B28" t="s">
-        <v>872</v>
+        <v>752</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>684</v>
-      </c>
-      <c r="B29" t="s">
-        <v>872</v>
+        <v>813</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>685</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>881</v>
+        <v>812</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>686</v>
-      </c>
-      <c r="B31" t="s">
-        <v>872</v>
+        <v>779</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>687</v>
-      </c>
-      <c r="B32" t="s">
-        <v>865</v>
+        <v>787</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>688</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>894</v>
+        <v>664</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>689</v>
-      </c>
-      <c r="B34" t="s">
-        <v>895</v>
+        <v>774</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B35" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="B36" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>692</v>
-      </c>
-      <c r="B37" t="s">
-        <v>879</v>
+        <v>727</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>693</v>
-      </c>
-      <c r="B38" t="s">
-        <v>865</v>
+        <v>739</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="B39" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>695</v>
-      </c>
-      <c r="B40" t="s">
-        <v>871</v>
+        <v>724</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>696</v>
-      </c>
-      <c r="B41" t="s">
-        <v>885</v>
+        <v>761</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>697</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>896</v>
-      </c>
-      <c r="D42" s="4"/>
+        <v>674</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>873</v>
+      </c>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>698</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>882</v>
+        <v>770</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="B44" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>700</v>
-      </c>
-      <c r="B45" t="s">
-        <v>869</v>
+        <v>726</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>701</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>876</v>
+        <v>767</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>702</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>897</v>
+        <v>713</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>703</v>
-      </c>
-      <c r="B48" t="s">
-        <v>884</v>
+        <v>766</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>704</v>
-      </c>
-      <c r="B49" t="s">
-        <v>870</v>
+        <v>801</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>705</v>
-      </c>
-      <c r="B50" t="s">
-        <v>870</v>
+        <v>750</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>706</v>
-      </c>
-      <c r="B51" t="s">
-        <v>870</v>
+        <v>749</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>707</v>
-      </c>
-      <c r="B52" t="s">
-        <v>870</v>
+        <v>675</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>708</v>
+        <v>662</v>
       </c>
       <c r="B53" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>709</v>
-      </c>
-      <c r="B54" t="s">
-        <v>870</v>
+        <v>731</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>710</v>
-      </c>
-      <c r="B55" t="s">
-        <v>870</v>
+        <v>798</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>711</v>
+        <v>663</v>
       </c>
       <c r="B56" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>712</v>
-      </c>
-      <c r="B57" t="s">
-        <v>870</v>
+        <v>769</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>713</v>
-      </c>
-      <c r="B58" t="s">
-        <v>872</v>
+        <v>800</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>714</v>
-      </c>
-      <c r="B59" t="s">
-        <v>868</v>
+        <v>732</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>715</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>898</v>
+        <v>734</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>716</v>
-      </c>
-      <c r="B61" t="s">
-        <v>866</v>
+        <v>730</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>717</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>881</v>
+        <v>723</v>
+      </c>
+      <c r="B62" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="B63" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>719</v>
-      </c>
-      <c r="B64" t="s">
-        <v>870</v>
+        <v>776</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>720</v>
-      </c>
-      <c r="B65" t="s">
-        <v>870</v>
+        <v>788</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>721</v>
+        <v>677</v>
       </c>
       <c r="B66" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>722</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>899</v>
+        <v>754</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>723</v>
-      </c>
-      <c r="B68" t="s">
-        <v>871</v>
+        <v>809</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>874</v>
@@ -8118,15 +8228,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>725</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>874</v>
+        <v>698</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>726</v>
+        <v>806</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>874</v>
@@ -8134,15 +8244,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>727</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>874</v>
+        <v>702</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>728</v>
+        <v>759</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>874</v>
@@ -8150,7 +8260,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>874</v>
@@ -8158,15 +8268,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>730</v>
-      </c>
-      <c r="B75" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="B75" s="18" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>874</v>
@@ -8174,7 +8284,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>732</v>
+        <v>778</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>874</v>
@@ -8182,15 +8292,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>733</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>875</v>
+        <v>799</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>874</v>
@@ -8198,7 +8308,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>735</v>
+        <v>786</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>874</v>
@@ -8206,23 +8316,23 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>736</v>
-      </c>
-      <c r="B81" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="B81" s="18" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>737</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>874</v>
+        <v>689</v>
+      </c>
+      <c r="B82" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>874</v>
@@ -8230,47 +8340,47 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>739</v>
-      </c>
-      <c r="B84" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="B84" s="18" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>740</v>
+        <v>682</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>874</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>741</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>874</v>
+        <v>703</v>
+      </c>
+      <c r="B86" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>742</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>874</v>
+        <v>715</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>874</v>
@@ -8278,63 +8388,63 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>745</v>
-      </c>
-      <c r="B90" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="B90" s="18" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>746</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>874</v>
+        <v>692</v>
+      </c>
+      <c r="B91" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>747</v>
-      </c>
-      <c r="B92" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="B92" s="18" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>748</v>
-      </c>
-      <c r="B93" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="B93" s="18" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>749</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>874</v>
+        <v>661</v>
+      </c>
+      <c r="B94" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>750</v>
-      </c>
-      <c r="B95" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="B95" s="18" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>751</v>
-      </c>
-      <c r="B96" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="B96" s="18" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B97" s="17" t="s">
         <v>874</v>
@@ -8342,15 +8452,15 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>753</v>
-      </c>
-      <c r="B98" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="B98" s="18" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B99" s="17" t="s">
         <v>874</v>
@@ -8358,159 +8468,159 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>755</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>874</v>
+        <v>679</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>756</v>
+        <v>701</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>757</v>
-      </c>
-      <c r="B102" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="B102" s="18" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>758</v>
-      </c>
-      <c r="B103" s="18" t="s">
-        <v>874</v>
+        <v>665</v>
+      </c>
+      <c r="B103" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>759</v>
-      </c>
-      <c r="B104" s="18" t="s">
-        <v>874</v>
+        <v>718</v>
+      </c>
+      <c r="B104" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>760</v>
-      </c>
-      <c r="B105" s="18" t="s">
-        <v>874</v>
+        <v>681</v>
+      </c>
+      <c r="B105" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>761</v>
-      </c>
-      <c r="B106" s="18" t="s">
-        <v>874</v>
+        <v>720</v>
+      </c>
+      <c r="B106" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>762</v>
-      </c>
-      <c r="B107" s="18" t="s">
-        <v>874</v>
+        <v>706</v>
+      </c>
+      <c r="B107" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>763</v>
-      </c>
-      <c r="B108" s="18" t="s">
-        <v>874</v>
+        <v>719</v>
+      </c>
+      <c r="B108" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>764</v>
-      </c>
-      <c r="B109" s="18" t="s">
-        <v>874</v>
+        <v>707</v>
+      </c>
+      <c r="B109" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>765</v>
-      </c>
-      <c r="B110" s="18" t="s">
-        <v>874</v>
+        <v>691</v>
+      </c>
+      <c r="B110" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>766</v>
-      </c>
-      <c r="B111" s="18" t="s">
-        <v>874</v>
+        <v>711</v>
+      </c>
+      <c r="B111" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>767</v>
-      </c>
-      <c r="B112" s="18" t="s">
-        <v>874</v>
+        <v>710</v>
+      </c>
+      <c r="B112" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>768</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>874</v>
+        <v>708</v>
+      </c>
+      <c r="B113" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>769</v>
-      </c>
-      <c r="B114" s="18" t="s">
-        <v>874</v>
+        <v>704</v>
+      </c>
+      <c r="B114" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>770</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>874</v>
+        <v>712</v>
+      </c>
+      <c r="B115" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>771</v>
-      </c>
-      <c r="B116" s="18" t="s">
-        <v>874</v>
+        <v>694</v>
+      </c>
+      <c r="B116" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>772</v>
-      </c>
-      <c r="B117" s="18" t="s">
-        <v>874</v>
+        <v>705</v>
+      </c>
+      <c r="B117" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>773</v>
-      </c>
-      <c r="B118" s="18" t="s">
-        <v>874</v>
+        <v>709</v>
+      </c>
+      <c r="B118" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>774</v>
+        <v>802</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>874</v>
@@ -8518,47 +8628,47 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>775</v>
-      </c>
-      <c r="B120" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="B120" s="17" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>776</v>
-      </c>
-      <c r="B121" s="18" t="s">
-        <v>874</v>
+        <v>688</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>777</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>874</v>
+        <v>714</v>
+      </c>
+      <c r="B122" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>778</v>
-      </c>
-      <c r="B123" s="18" t="s">
-        <v>874</v>
+        <v>671</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>779</v>
-      </c>
-      <c r="B124" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="B124" s="17" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>874</v>
@@ -8566,7 +8676,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>781</v>
+        <v>808</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>874</v>
@@ -8574,23 +8684,23 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>782</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>874</v>
+        <v>716</v>
+      </c>
+      <c r="B127" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>783</v>
-      </c>
-      <c r="B128" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="B128" s="17" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>874</v>
@@ -8598,31 +8708,31 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>785</v>
-      </c>
-      <c r="B130" s="18" t="s">
-        <v>874</v>
+        <v>660</v>
+      </c>
+      <c r="B130" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>786</v>
-      </c>
-      <c r="B131" s="18" t="s">
-        <v>874</v>
+        <v>721</v>
+      </c>
+      <c r="B131" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>787</v>
-      </c>
-      <c r="B132" s="18" t="s">
-        <v>874</v>
+        <v>696</v>
+      </c>
+      <c r="B132" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>874</v>
@@ -8630,7 +8740,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>789</v>
+        <v>758</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>874</v>
@@ -8638,7 +8748,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>874</v>
@@ -8646,7 +8756,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>874</v>
@@ -8654,7 +8764,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>874</v>
@@ -8662,7 +8772,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>874</v>
@@ -8670,23 +8780,23 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>794</v>
-      </c>
-      <c r="B139" s="18" t="s">
-        <v>874</v>
+        <v>673</v>
+      </c>
+      <c r="B139" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>795</v>
-      </c>
-      <c r="B140" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="B140" s="17" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="B141" s="18" t="s">
         <v>874</v>
@@ -8694,15 +8804,15 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>797</v>
-      </c>
-      <c r="B142" s="18" t="s">
-        <v>874</v>
+        <v>669</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>874</v>
@@ -8710,125 +8820,129 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="B144" s="18" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="B145" s="18" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>801</v>
-      </c>
-      <c r="B146" s="18" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+      <c r="B146" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="D146" s="22"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>802</v>
-      </c>
-      <c r="B147" s="18" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+      <c r="B147" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>803</v>
-      </c>
-      <c r="B148" s="18" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+      <c r="B148" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>805</v>
+        <v>728</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>806</v>
+        <v>780</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>808</v>
-      </c>
-      <c r="B153" s="18" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+        <v>695</v>
+      </c>
+      <c r="B153" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>809</v>
-      </c>
-      <c r="B154" s="18" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+      <c r="B154" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>810</v>
-      </c>
-      <c r="B155" s="18" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+      <c r="B155" s="22" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B156" s="18" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>812</v>
-      </c>
-      <c r="B157" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="B157" s="17" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>813</v>
+        <v>783</v>
       </c>
       <c r="B158" s="18" t="s">
         <v>874</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H158">
+    <sortCondition ref="A2:A158"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
